--- a/sql/Dictionnaire de Données.xlsx
+++ b/sql/Dictionnaire de Données.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\GitHub\projet-web\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D0A10D4-CA72-4D70-9E74-624A538BFFC0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A690B0-E0E1-43B3-9AE0-A3C7EFA45C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dictionnaire de Données" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
   <si>
     <t xml:space="preserve">Dictionnaire de données </t>
   </si>
@@ -131,12 +131,18 @@
   </si>
   <si>
     <t>Nom : id_images</t>
+  </si>
+  <si>
+    <t>Nom : votes_images</t>
+  </si>
+  <si>
+    <t>Taille : 255 ,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -979,11 +985,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="J28" sqref="J27:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,22 +1429,36 @@
       <c r="N21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="8"/>
       <c r="J23" s="4" t="s">
         <v>19</v>
       </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D24" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="8"/>
       <c r="J24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D25" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="8"/>
       <c r="J25" s="4" t="s">
         <v>3</v>
       </c>

--- a/sql/Dictionnaire de Données.xlsx
+++ b/sql/Dictionnaire de Données.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charlotte\Documents\GitHub\projet-web\sql\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A690B0-E0E1-43B3-9AE0-A3C7EFA45C2A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764597A-1635-4AC9-85D0-9398D8EBB0B4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9732" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="41">
   <si>
     <t xml:space="preserve">Dictionnaire de données </t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>Taille : 255 ,</t>
+  </si>
+  <si>
+    <t>Nom : id_comment</t>
+  </si>
+  <si>
+    <t>Nom : comment</t>
   </si>
 </sst>
 </file>
@@ -620,7 +626,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="19"/>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23"/>
@@ -631,6 +637,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="9"/>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="2" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="28" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -986,10 +993,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J27:J28"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1405,6 +1412,10 @@
         <v>5</v>
       </c>
       <c r="N20" s="6"/>
+      <c r="P20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1427,12 +1438,20 @@
         <v>6</v>
       </c>
       <c r="N21" s="6"/>
+      <c r="P21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
+      <c r="P22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D23" s="8" t="s">
@@ -1443,6 +1462,8 @@
         <v>19</v>
       </c>
       <c r="K23" s="4"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D24" s="8" t="s">
@@ -1453,6 +1474,10 @@
         <v>20</v>
       </c>
       <c r="K24" s="4"/>
+      <c r="P24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D25" s="8" t="s">
@@ -1463,6 +1488,16 @@
         <v>3</v>
       </c>
       <c r="K25" s="4"/>
+      <c r="P25" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q25" s="5"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
